--- a/data/georgia_census/samegrelo/mestia/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/mestia/education_graduates.xlsx
@@ -1835,13 +1835,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33929C8A-87EE-489D-BFF0-E3CAE6856C57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA46C159-2201-470E-9C81-F52A8A99F43B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39E81440-853D-4993-859D-6F1C2DA29425}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4DDD64E-10B7-4849-A9A6-DE23B167DABE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C17B5D-6667-459E-B927-844C0A169B27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95F13353-8D32-4F8F-B260-4A21F83148BD}"/>
 </file>